--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198590.33</v>
+        <v>973482.9300000001</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66196.78</v>
+        <v>162247.15</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78377.74000000001</v>
+        <v>80580.89999999999</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71141.69</v>
+        <v>65488.49</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49070.9</v>
+        <v>50159.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>570016.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>192468.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14768.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,114 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>973482.9300000001</v>
+        <v>80580.89999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77443.96000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162247.15</v>
+        <v>570016.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>571463.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80580.89999999999</v>
+        <v>192468.92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>203026.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65488.49</v>
+        <v>14768.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15099.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50159.64</v>
+        <v>65488.49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69528.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>570016.27</v>
+        <v>50159.64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51312.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192468.92</v>
+        <v>162247.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164645.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14768.71</v>
+        <v>973482.9300000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>987874.3199999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,114 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987874.3199999999</v>
+        <v>77443.96000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80682.92999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164645.72</v>
+        <v>571463.61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>574928.9300000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77443.96000000001</v>
+        <v>203026.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>202954.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>571463.61</v>
+        <v>15099.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24715.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203026.25</v>
+        <v>69528.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70357.17999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15099.4</v>
+        <v>51312.12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47973.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69528.98</v>
+        <v>164645.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>166935.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51312.12</v>
+        <v>987874.3199999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1001612.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -467,9 +467,7 @@
       <c r="B3" t="n">
         <v>571463.61</v>
       </c>
-      <c r="C3" t="n">
-        <v>574928.9300000001</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,9 +478,7 @@
       <c r="B4" t="n">
         <v>203026.25</v>
       </c>
-      <c r="C4" t="n">
-        <v>202954.79</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -493,9 +489,7 @@
       <c r="B5" t="n">
         <v>15099.4</v>
       </c>
-      <c r="C5" t="n">
-        <v>24715.09</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -533,7 +527,7 @@
         <v>164645.72</v>
       </c>
       <c r="C8" t="n">
-        <v>166935.38</v>
+        <v>66337.83</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +540,7 @@
         <v>987874.3199999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1001612.29</v>
+        <v>199013.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77443.96000000001</v>
+        <v>79558.69</v>
       </c>
       <c r="C2" t="n">
-        <v>80682.92999999999</v>
+        <v>79506.16</v>
       </c>
       <c r="D2" t="n">
-        <v>80803.56</v>
+        <v>80857.53</v>
       </c>
       <c r="E2" t="n">
-        <v>77997.25</v>
+        <v>81563.62</v>
       </c>
       <c r="F2" t="n">
-        <v>80364.89</v>
+        <v>80667.25</v>
       </c>
       <c r="G2" t="n">
-        <v>79320.82000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>82298</v>
-      </c>
-      <c r="I2" t="n">
-        <v>82356.58</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82362.10000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>79446.47</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79872.81</v>
-      </c>
-      <c r="M2" t="n">
-        <v>79558.69</v>
+        <v>77597.12</v>
       </c>
     </row>
     <row r="3">
@@ -545,38 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571463.61</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>569180.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>570539.35</v>
+      </c>
       <c r="D3" t="n">
-        <v>573900.4399999999</v>
+        <v>572176.33</v>
       </c>
       <c r="E3" t="n">
-        <v>572717.4300000001</v>
+        <v>572185.63</v>
       </c>
       <c r="F3" t="n">
-        <v>571808.39</v>
+        <v>573422.6800000001</v>
       </c>
       <c r="G3" t="n">
-        <v>570474.02</v>
-      </c>
-      <c r="H3" t="n">
-        <v>572345.84</v>
-      </c>
-      <c r="I3" t="n">
-        <v>575056.1899999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>569294.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>568791.6899999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>570694.97</v>
-      </c>
-      <c r="M3" t="n">
-        <v>569180.95</v>
+        <v>572582</v>
       </c>
     </row>
     <row r="4">
@@ -586,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203026.25</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>201610.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>191727.81</v>
+      </c>
       <c r="D4" t="n">
-        <v>192740.53</v>
+        <v>194743.71</v>
       </c>
       <c r="E4" t="n">
-        <v>202690.87</v>
+        <v>193084.41</v>
       </c>
       <c r="F4" t="n">
-        <v>191746.9</v>
+        <v>193218.78</v>
       </c>
       <c r="G4" t="n">
-        <v>198792.35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>199985.47</v>
-      </c>
-      <c r="I4" t="n">
-        <v>200942.11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>192209.91</v>
-      </c>
-      <c r="K4" t="n">
-        <v>197329.49</v>
-      </c>
-      <c r="L4" t="n">
-        <v>202837.89</v>
-      </c>
-      <c r="M4" t="n">
-        <v>201610.68</v>
+        <v>195033.6</v>
       </c>
     </row>
     <row r="5">
@@ -627,38 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15099.4</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>13880.39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13144.6</v>
+      </c>
       <c r="D5" t="n">
-        <v>12831.91</v>
+        <v>12949.67</v>
       </c>
       <c r="E5" t="n">
-        <v>23624.93</v>
+        <v>13112.56</v>
       </c>
       <c r="F5" t="n">
-        <v>12716.79</v>
+        <v>23429.22</v>
       </c>
       <c r="G5" t="n">
-        <v>12822.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12910.32</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13218.79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13804.64</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14725.37</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14008.24</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13880.39</v>
+        <v>24654.31</v>
       </c>
     </row>
     <row r="6">
@@ -668,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69528.98</v>
+        <v>69495.78</v>
       </c>
       <c r="C6" t="n">
-        <v>70357.17999999999</v>
+        <v>69120.71000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>66771.47</v>
+        <v>70753.22</v>
       </c>
       <c r="E6" t="n">
-        <v>69910.77</v>
+        <v>68908.14999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>66870.96000000001</v>
+        <v>70343.77</v>
       </c>
       <c r="G6" t="n">
-        <v>70648.83</v>
-      </c>
-      <c r="H6" t="n">
-        <v>71740.87</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71600.95</v>
-      </c>
-      <c r="J6" t="n">
-        <v>72774.10000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>67083.34</v>
-      </c>
-      <c r="L6" t="n">
-        <v>70121.73</v>
-      </c>
-      <c r="M6" t="n">
-        <v>69495.78</v>
+        <v>72312.97</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51312.12</v>
+        <v>51482.66</v>
       </c>
       <c r="C7" t="n">
-        <v>47973.37</v>
+        <v>52723.18</v>
       </c>
       <c r="D7" t="n">
-        <v>51258.17</v>
+        <v>47709.75</v>
       </c>
       <c r="E7" t="n">
-        <v>47987.01</v>
+        <v>51719.01</v>
       </c>
       <c r="F7" t="n">
-        <v>50063.34</v>
+        <v>51471.29</v>
       </c>
       <c r="G7" t="n">
-        <v>51105.98</v>
-      </c>
-      <c r="H7" t="n">
-        <v>51515.85</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52462.58</v>
-      </c>
-      <c r="J7" t="n">
-        <v>47051.82</v>
-      </c>
-      <c r="K7" t="n">
-        <v>46861.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>51130.06</v>
-      </c>
-      <c r="M7" t="n">
-        <v>51482.66</v>
+        <v>51402.4</v>
       </c>
     </row>
     <row r="8">
@@ -754,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164645.72</v>
+        <v>164201.52</v>
       </c>
       <c r="C8" t="n">
-        <v>66337.83</v>
+        <v>162793.64</v>
       </c>
       <c r="D8" t="n">
-        <v>163051.01</v>
+        <v>163198.37</v>
       </c>
       <c r="E8" t="n">
-        <v>165821.38</v>
+        <v>163428.9</v>
       </c>
       <c r="F8" t="n">
-        <v>162261.88</v>
+        <v>165425.5</v>
       </c>
       <c r="G8" t="n">
-        <v>163860.77</v>
-      </c>
-      <c r="H8" t="n">
-        <v>165132.73</v>
-      </c>
-      <c r="I8" t="n">
-        <v>165939.53</v>
-      </c>
-      <c r="J8" t="n">
-        <v>162916.12</v>
-      </c>
-      <c r="K8" t="n">
-        <v>162372.98</v>
-      </c>
-      <c r="L8" t="n">
-        <v>164777.62</v>
-      </c>
-      <c r="M8" t="n">
-        <v>164201.52</v>
+        <v>165597.07</v>
       </c>
     </row>
     <row r="9">
@@ -797,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>987874.3199999999</v>
+        <v>985209.15</v>
       </c>
       <c r="C9" t="n">
-        <v>199013.48</v>
+        <v>976761.8100000001</v>
       </c>
       <c r="D9" t="n">
-        <v>978306.08</v>
+        <v>979190.21</v>
       </c>
       <c r="E9" t="n">
-        <v>994928.26</v>
+        <v>980573.38</v>
       </c>
       <c r="F9" t="n">
-        <v>973571.27</v>
+        <v>992552.99</v>
       </c>
       <c r="G9" t="n">
-        <v>983164.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>990796.35</v>
-      </c>
-      <c r="I9" t="n">
-        <v>995637.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>977496.72</v>
-      </c>
-      <c r="K9" t="n">
-        <v>974237.86</v>
-      </c>
-      <c r="L9" t="n">
-        <v>988665.7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>985209.15</v>
+        <v>993582.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>77443.96000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80682.92999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80803.56</v>
+      </c>
+      <c r="E2" t="n">
+        <v>77997.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80364.89</v>
+      </c>
+      <c r="G2" t="n">
+        <v>79320.82000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>82298</v>
+      </c>
+      <c r="I2" t="n">
+        <v>82356.58</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82362.10000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>79446.47</v>
+      </c>
+      <c r="L2" t="n">
+        <v>79872.81</v>
+      </c>
+      <c r="M2" t="n">
         <v>79558.69</v>
-      </c>
-      <c r="C2" t="n">
-        <v>79506.16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>80857.53</v>
-      </c>
-      <c r="E2" t="n">
-        <v>81563.62</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80667.25</v>
-      </c>
-      <c r="G2" t="n">
-        <v>77597.12</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,38 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>571463.61</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>573900.4399999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>572717.4300000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>571808.39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>570474.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>572345.84</v>
+      </c>
+      <c r="I3" t="n">
+        <v>575056.1899999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>569294.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>568791.6899999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>570694.97</v>
+      </c>
+      <c r="M3" t="n">
         <v>569180.95</v>
-      </c>
-      <c r="C3" t="n">
-        <v>570539.35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>572176.33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>572185.63</v>
-      </c>
-      <c r="F3" t="n">
-        <v>573422.6800000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>572582</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +586,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>203026.25</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>192740.53</v>
+      </c>
+      <c r="E4" t="n">
+        <v>202690.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>191746.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>198792.35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>199985.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>200942.11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>192209.91</v>
+      </c>
+      <c r="K4" t="n">
+        <v>197329.49</v>
+      </c>
+      <c r="L4" t="n">
+        <v>202837.89</v>
+      </c>
+      <c r="M4" t="n">
         <v>201610.68</v>
-      </c>
-      <c r="C4" t="n">
-        <v>191727.81</v>
-      </c>
-      <c r="D4" t="n">
-        <v>194743.71</v>
-      </c>
-      <c r="E4" t="n">
-        <v>193084.41</v>
-      </c>
-      <c r="F4" t="n">
-        <v>193218.78</v>
-      </c>
-      <c r="G4" t="n">
-        <v>195033.6</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +627,38 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>15099.4</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>12831.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23624.93</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12716.79</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12822.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12910.32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13218.79</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13804.64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14725.37</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14008.24</v>
+      </c>
+      <c r="M5" t="n">
         <v>13880.39</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13144.6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12949.67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13112.56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23429.22</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24654.31</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +668,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>69528.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70357.17999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66771.47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69910.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>66870.96000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70648.83</v>
+      </c>
+      <c r="H6" t="n">
+        <v>71740.87</v>
+      </c>
+      <c r="I6" t="n">
+        <v>71600.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>72774.10000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>67083.34</v>
+      </c>
+      <c r="L6" t="n">
+        <v>70121.73</v>
+      </c>
+      <c r="M6" t="n">
         <v>69495.78</v>
-      </c>
-      <c r="C6" t="n">
-        <v>69120.71000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>70753.22</v>
-      </c>
-      <c r="E6" t="n">
-        <v>68908.14999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>70343.77</v>
-      </c>
-      <c r="G6" t="n">
-        <v>72312.97</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +711,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>51312.12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47973.37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51258.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47987.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50063.34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>51105.98</v>
+      </c>
+      <c r="H7" t="n">
+        <v>51515.85</v>
+      </c>
+      <c r="I7" t="n">
+        <v>52462.58</v>
+      </c>
+      <c r="J7" t="n">
+        <v>47051.82</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46861.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>51130.06</v>
+      </c>
+      <c r="M7" t="n">
         <v>51482.66</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52723.18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>47709.75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>51719.01</v>
-      </c>
-      <c r="F7" t="n">
-        <v>51471.29</v>
-      </c>
-      <c r="G7" t="n">
-        <v>51402.4</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +754,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>164645.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>66337.83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>163051.01</v>
+      </c>
+      <c r="E8" t="n">
+        <v>165821.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>162261.88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>163860.77</v>
+      </c>
+      <c r="H8" t="n">
+        <v>165132.73</v>
+      </c>
+      <c r="I8" t="n">
+        <v>165939.53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>162916.12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>162372.98</v>
+      </c>
+      <c r="L8" t="n">
+        <v>164777.62</v>
+      </c>
+      <c r="M8" t="n">
         <v>164201.52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>162793.64</v>
-      </c>
-      <c r="D8" t="n">
-        <v>163198.37</v>
-      </c>
-      <c r="E8" t="n">
-        <v>163428.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>165425.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>165597.07</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +797,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>987874.3199999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>199013.48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>978306.08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>994928.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>973571.27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>983164.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>990796.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>995637.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>977496.72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>974237.86</v>
+      </c>
+      <c r="L9" t="n">
+        <v>988665.7</v>
+      </c>
+      <c r="M9" t="n">
         <v>985209.15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>976761.8100000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>979190.21</v>
-      </c>
-      <c r="E9" t="n">
-        <v>980573.38</v>
-      </c>
-      <c r="F9" t="n">
-        <v>992552.99</v>
-      </c>
-      <c r="G9" t="n">
-        <v>993582.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77443.96000000001</v>
+        <v>79558.69</v>
       </c>
       <c r="C2" t="n">
-        <v>80682.92999999999</v>
+        <v>79506.16</v>
       </c>
       <c r="D2" t="n">
-        <v>80803.56</v>
+        <v>80857.53</v>
       </c>
       <c r="E2" t="n">
-        <v>77997.25</v>
+        <v>81563.62</v>
       </c>
       <c r="F2" t="n">
-        <v>80364.89</v>
+        <v>80667.25</v>
       </c>
       <c r="G2" t="n">
-        <v>79320.82000000001</v>
+        <v>77597.12</v>
       </c>
       <c r="H2" t="n">
-        <v>82298</v>
+        <v>78837.28</v>
       </c>
       <c r="I2" t="n">
-        <v>82356.58</v>
+        <v>82196.50999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>82362.10000000001</v>
+        <v>78732.39999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>79446.47</v>
+        <v>78149.28</v>
       </c>
       <c r="L2" t="n">
-        <v>79872.81</v>
+        <v>80597.63</v>
       </c>
       <c r="M2" t="n">
-        <v>79558.69</v>
+        <v>80369.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80860.78999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>78659.31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>82058.98</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>78110.42999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>78620.64</v>
+      </c>
+      <c r="S2" t="n">
+        <v>79606.57000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>80316.78</v>
+      </c>
+      <c r="U2" t="n">
+        <v>78696.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>79052.96000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>77933.33</v>
+      </c>
+      <c r="X2" t="n">
+        <v>81041.42999999999</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>79102.05</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>78567.59</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>80218.02</v>
       </c>
     </row>
     <row r="3">
@@ -545,38 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571463.61</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>569180.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>570539.35</v>
+      </c>
       <c r="D3" t="n">
-        <v>573900.4399999999</v>
+        <v>572176.33</v>
       </c>
       <c r="E3" t="n">
-        <v>572717.4300000001</v>
+        <v>572185.63</v>
       </c>
       <c r="F3" t="n">
-        <v>571808.39</v>
+        <v>573422.6800000001</v>
       </c>
       <c r="G3" t="n">
-        <v>570474.02</v>
+        <v>572582</v>
       </c>
       <c r="H3" t="n">
-        <v>572345.84</v>
+        <v>574313.36</v>
       </c>
       <c r="I3" t="n">
-        <v>575056.1899999999</v>
+        <v>574794.5600000001</v>
       </c>
       <c r="J3" t="n">
-        <v>569294.15</v>
+        <v>571888.08</v>
       </c>
       <c r="K3" t="n">
-        <v>568791.6899999999</v>
+        <v>571329.79</v>
       </c>
       <c r="L3" t="n">
-        <v>570694.97</v>
+        <v>570842.8</v>
       </c>
       <c r="M3" t="n">
-        <v>569180.95</v>
+        <v>572494.46</v>
+      </c>
+      <c r="N3" t="n">
+        <v>570652.3199999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>570456.66</v>
+      </c>
+      <c r="P3" t="n">
+        <v>571027.54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>571031.1899999999</v>
+      </c>
+      <c r="R3" t="n">
+        <v>572917.48</v>
+      </c>
+      <c r="S3" t="n">
+        <v>573253.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>571719.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>574307.77</v>
+      </c>
+      <c r="V3" t="n">
+        <v>570997.46</v>
+      </c>
+      <c r="W3" t="n">
+        <v>573632.67</v>
+      </c>
+      <c r="X3" t="n">
+        <v>572646.33</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>573256.59</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>572546.85</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>570074.23</v>
       </c>
     </row>
     <row r="4">
@@ -586,38 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203026.25</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>201610.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>191727.81</v>
+      </c>
       <c r="D4" t="n">
-        <v>192740.53</v>
+        <v>194743.71</v>
       </c>
       <c r="E4" t="n">
-        <v>202690.87</v>
+        <v>193084.41</v>
       </c>
       <c r="F4" t="n">
-        <v>191746.9</v>
+        <v>193218.78</v>
       </c>
       <c r="G4" t="n">
-        <v>198792.35</v>
+        <v>195033.6</v>
       </c>
       <c r="H4" t="n">
-        <v>199985.47</v>
+        <v>191623.77</v>
       </c>
       <c r="I4" t="n">
-        <v>200942.11</v>
+        <v>193135.91</v>
       </c>
       <c r="J4" t="n">
-        <v>192209.91</v>
+        <v>193713.44</v>
       </c>
       <c r="K4" t="n">
-        <v>197329.49</v>
+        <v>199444.07</v>
       </c>
       <c r="L4" t="n">
-        <v>202837.89</v>
+        <v>200070.01</v>
       </c>
       <c r="M4" t="n">
-        <v>201610.68</v>
+        <v>197521.37</v>
+      </c>
+      <c r="N4" t="n">
+        <v>200963.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>199209.14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>199389.01</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>197314.54</v>
+      </c>
+      <c r="R4" t="n">
+        <v>197345.46</v>
+      </c>
+      <c r="S4" t="n">
+        <v>196783.27</v>
+      </c>
+      <c r="T4" t="n">
+        <v>199306.23</v>
+      </c>
+      <c r="U4" t="n">
+        <v>201455.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>195427.52</v>
+      </c>
+      <c r="W4" t="n">
+        <v>199271.84</v>
+      </c>
+      <c r="X4" t="n">
+        <v>198160.68</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>198489.15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>198534.51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>199893.76</v>
       </c>
     </row>
     <row r="5">
@@ -627,38 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15099.4</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>13880.39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13144.6</v>
+      </c>
       <c r="D5" t="n">
-        <v>12831.91</v>
+        <v>12949.67</v>
       </c>
       <c r="E5" t="n">
-        <v>23624.93</v>
+        <v>13112.56</v>
       </c>
       <c r="F5" t="n">
-        <v>12716.79</v>
+        <v>23429.22</v>
       </c>
       <c r="G5" t="n">
-        <v>12822.6</v>
+        <v>24654.31</v>
       </c>
       <c r="H5" t="n">
-        <v>12910.32</v>
+        <v>21566.56</v>
       </c>
       <c r="I5" t="n">
-        <v>13218.79</v>
+        <v>20956.91</v>
       </c>
       <c r="J5" t="n">
-        <v>13804.64</v>
+        <v>18313.23</v>
       </c>
       <c r="K5" t="n">
-        <v>14725.37</v>
+        <v>17994.37</v>
       </c>
       <c r="L5" t="n">
-        <v>14008.24</v>
+        <v>18904.43</v>
       </c>
       <c r="M5" t="n">
-        <v>13880.39</v>
+        <v>17026.68</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19013.79</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19048.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>20905.73</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21131.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>18778.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20342.12</v>
+      </c>
+      <c r="T5" t="n">
+        <v>20009.96</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22544.92</v>
+      </c>
+      <c r="V5" t="n">
+        <v>16403.03</v>
+      </c>
+      <c r="W5" t="n">
+        <v>21659</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16641.39</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16901.23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21413.55</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>16729.24</v>
       </c>
     </row>
     <row r="6">
@@ -668,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69528.98</v>
+        <v>69495.78</v>
       </c>
       <c r="C6" t="n">
-        <v>70357.17999999999</v>
+        <v>69120.71000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>66771.47</v>
+        <v>70753.22</v>
       </c>
       <c r="E6" t="n">
-        <v>69910.77</v>
+        <v>68908.14999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>66870.96000000001</v>
+        <v>70343.77</v>
       </c>
       <c r="G6" t="n">
-        <v>70648.83</v>
+        <v>72312.97</v>
       </c>
       <c r="H6" t="n">
-        <v>71740.87</v>
+        <v>68677.75</v>
       </c>
       <c r="I6" t="n">
-        <v>71600.95</v>
+        <v>69409.42999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>72774.10000000001</v>
+        <v>67061.63</v>
       </c>
       <c r="K6" t="n">
-        <v>67083.34</v>
+        <v>71421.92999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>70121.73</v>
+        <v>70330.56</v>
       </c>
       <c r="M6" t="n">
-        <v>69495.78</v>
+        <v>68267.88</v>
+      </c>
+      <c r="N6" t="n">
+        <v>67069.96000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>69248.91</v>
+      </c>
+      <c r="P6" t="n">
+        <v>71195.34</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>68079.17999999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>67806.69</v>
+      </c>
+      <c r="S6" t="n">
+        <v>70624.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>67213.92</v>
+      </c>
+      <c r="U6" t="n">
+        <v>66864.17</v>
+      </c>
+      <c r="V6" t="n">
+        <v>68682.71000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>70800.28</v>
+      </c>
+      <c r="X6" t="n">
+        <v>69084.94</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>68601.24000000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>67676.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>70958.41</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51312.12</v>
+        <v>51482.66</v>
       </c>
       <c r="C7" t="n">
-        <v>47973.37</v>
+        <v>52723.18</v>
       </c>
       <c r="D7" t="n">
-        <v>51258.17</v>
+        <v>47709.75</v>
       </c>
       <c r="E7" t="n">
-        <v>47987.01</v>
+        <v>51719.01</v>
       </c>
       <c r="F7" t="n">
-        <v>50063.34</v>
+        <v>51471.29</v>
       </c>
       <c r="G7" t="n">
-        <v>51105.98</v>
+        <v>51402.4</v>
       </c>
       <c r="H7" t="n">
-        <v>51515.85</v>
+        <v>50495.82</v>
       </c>
       <c r="I7" t="n">
-        <v>52462.58</v>
+        <v>52050.14</v>
       </c>
       <c r="J7" t="n">
-        <v>47051.82</v>
+        <v>50144.68</v>
       </c>
       <c r="K7" t="n">
-        <v>46861.5</v>
+        <v>50910.12</v>
       </c>
       <c r="L7" t="n">
-        <v>51130.06</v>
+        <v>50694.95</v>
       </c>
       <c r="M7" t="n">
-        <v>51482.66</v>
+        <v>50263.23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>51457.14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>50334.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>52229.55</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>51195.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>48070</v>
+      </c>
+      <c r="S7" t="n">
+        <v>50777.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>53158.47</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47697.26</v>
+      </c>
+      <c r="V7" t="n">
+        <v>47062.79</v>
+      </c>
+      <c r="W7" t="n">
+        <v>52027.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>48481.43</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>51767.59</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>51660.64</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>52178.44</v>
       </c>
     </row>
     <row r="8">
@@ -754,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164645.72</v>
+        <v>164201.52</v>
       </c>
       <c r="C8" t="n">
-        <v>66337.83</v>
+        <v>162793.64</v>
       </c>
       <c r="D8" t="n">
-        <v>163051.01</v>
+        <v>163198.37</v>
       </c>
       <c r="E8" t="n">
-        <v>165821.38</v>
+        <v>163428.9</v>
       </c>
       <c r="F8" t="n">
-        <v>162261.88</v>
+        <v>165425.5</v>
       </c>
       <c r="G8" t="n">
-        <v>163860.77</v>
+        <v>165597.07</v>
       </c>
       <c r="H8" t="n">
-        <v>165132.73</v>
+        <v>164252.42</v>
       </c>
       <c r="I8" t="n">
-        <v>165939.53</v>
+        <v>165423.91</v>
       </c>
       <c r="J8" t="n">
-        <v>162916.12</v>
+        <v>163308.91</v>
       </c>
       <c r="K8" t="n">
-        <v>162372.98</v>
+        <v>164874.93</v>
       </c>
       <c r="L8" t="n">
-        <v>164777.62</v>
+        <v>165240.06</v>
       </c>
       <c r="M8" t="n">
-        <v>164201.52</v>
+        <v>164323.78</v>
+      </c>
+      <c r="N8" t="n">
+        <v>165002.88</v>
+      </c>
+      <c r="O8" t="n">
+        <v>164492.77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>166134.36</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>164477.06</v>
+      </c>
+      <c r="R8" t="n">
+        <v>163923.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>165231.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>165287.52</v>
+      </c>
+      <c r="U8" t="n">
+        <v>165261.12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>162937.74</v>
+      </c>
+      <c r="W8" t="n">
+        <v>165887.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>164342.7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>164686.31</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>165066.61</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>165008.68</v>
       </c>
     </row>
     <row r="9">
@@ -797,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>987874.3199999999</v>
+        <v>985209.15</v>
       </c>
       <c r="C9" t="n">
-        <v>199013.48</v>
+        <v>976761.8100000001</v>
       </c>
       <c r="D9" t="n">
-        <v>978306.08</v>
+        <v>979190.21</v>
       </c>
       <c r="E9" t="n">
-        <v>994928.26</v>
+        <v>980573.38</v>
       </c>
       <c r="F9" t="n">
-        <v>973571.27</v>
+        <v>992552.99</v>
       </c>
       <c r="G9" t="n">
-        <v>983164.6</v>
+        <v>993582.4</v>
       </c>
       <c r="H9" t="n">
-        <v>990796.35</v>
+        <v>985514.54</v>
       </c>
       <c r="I9" t="n">
-        <v>995637.2</v>
+        <v>992543.46</v>
       </c>
       <c r="J9" t="n">
-        <v>977496.72</v>
+        <v>979853.46</v>
       </c>
       <c r="K9" t="n">
-        <v>974237.86</v>
+        <v>989249.5600000001</v>
       </c>
       <c r="L9" t="n">
-        <v>988665.7</v>
+        <v>991440.38</v>
       </c>
       <c r="M9" t="n">
-        <v>985209.15</v>
+        <v>985942.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>990017.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>986956.65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>996806.15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>986862.36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>983539.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>991387.23</v>
+      </c>
+      <c r="T9" t="n">
+        <v>991725.11</v>
+      </c>
+      <c r="U9" t="n">
+        <v>991566.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>977626.47</v>
+      </c>
+      <c r="W9" t="n">
+        <v>995324.42</v>
+      </c>
+      <c r="X9" t="n">
+        <v>986056.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>988117.85</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>990399.64</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>990052.1</v>
       </c>
     </row>
   </sheetData>
